--- a/Backlogs/Sprint Backlogs.xlsx
+++ b/Backlogs/Sprint Backlogs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Project 3\Sprint 1 - PO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gurka\Documents\GitHub\Project3-Data\Backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -49,9 +49,6 @@
     <t>SPRINT 2</t>
   </si>
   <si>
-    <t>Storyboard</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -70,34 +67,22 @@
     <t>• The user can filter out data that he does not need</t>
   </si>
   <si>
-    <t>Create menu screen</t>
-  </si>
-  <si>
     <t>• Create menu screen</t>
   </si>
   <si>
     <t>• Menu should show up when running the program</t>
   </si>
   <si>
-    <t>Create data-set</t>
-  </si>
-  <si>
     <t>• Create data-set</t>
   </si>
   <si>
     <t>• Data-set should have a required data</t>
   </si>
   <si>
-    <t>Create user interface</t>
-  </si>
-  <si>
     <t>• Create user interface</t>
   </si>
   <si>
     <t>• User interface should show up when running the program</t>
-  </si>
-  <si>
-    <t>Put all data in a PostgreSQL Database</t>
   </si>
   <si>
     <t>• Put all data in a PostgreSQL
@@ -108,24 +93,38 @@
 PostgreSQL Database</t>
   </si>
   <si>
-    <t>Write code that visualizes data from the database in graphs</t>
-  </si>
-  <si>
     <t>• Write code that visualizes data from the database in graphs</t>
-  </si>
-  <si>
-    <t>Write query that compares
-data in the database</t>
   </si>
   <si>
     <t>• Write query that compares
 data in the database</t>
   </si>
   <si>
-    <t>Write query that filters data in the database</t>
-  </si>
-  <si>
     <t>• Write query that filters data in the database</t>
+  </si>
+  <si>
+    <t>As a user, I would like to see a menu screen so I can navigate through the app easily</t>
+  </si>
+  <si>
+    <t>As a user, I would like there to be a data set so I can access the data I want</t>
+  </si>
+  <si>
+    <t>As a user, I would like to have a storyboard so I understand how the app will look and how it will work</t>
+  </si>
+  <si>
+    <t>As a user, I would like there to be a user interface so I can use the app effectively</t>
+  </si>
+  <si>
+    <t>As a user, I would like there to be a database so the data is stored safely and accessable</t>
+  </si>
+  <si>
+    <t>As a user, I would like to see graphs so the data is clearer</t>
+  </si>
+  <si>
+    <t>As a user, I would like to be able to compare graphs so I can compare data in a clear way</t>
+  </si>
+  <si>
+    <t>As a user, I would like be able to filter data so I can see only the data that I would like to see</t>
   </si>
 </sst>
 </file>
@@ -641,7 +640,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -688,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>3</v>
@@ -697,10 +696,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -708,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>3</v>
@@ -717,10 +716,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -728,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>3</v>
@@ -737,10 +736,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -748,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>3</v>
@@ -757,10 +756,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -815,7 +814,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -861,19 +860,19 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="19">
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -881,7 +880,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>3</v>
@@ -890,10 +889,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -901,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>3</v>
@@ -910,10 +909,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -921,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>3</v>
@@ -930,10 +929,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">

--- a/Backlogs/Sprint Backlogs.xlsx
+++ b/Backlogs/Sprint Backlogs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Project 3\Sprint 2 - PO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gurka\Documents\GitHub\Project3-Data\Backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -128,9 +128,6 @@
     <t>As a user, I would like be able to filter data so I can see only the data that I would like to see</t>
   </si>
   <si>
-    <t>As a user, I would like to see the data appear on map so I can see where the data belongs</t>
-  </si>
-  <si>
     <t>• Link data with locations on the map</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>• The home, back, start buttons appear and function correctly.</t>
+  </si>
+  <si>
+    <t>As a user, I would like to see the data appear on a map so I can see where the data belongs</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -721,7 +721,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>15</v>
@@ -781,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>21</v>
@@ -842,7 +842,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -914,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>23</v>
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1056,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>3</v>
@@ -1065,10 +1065,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1076,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>3</v>
@@ -1085,10 +1085,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1096,19 +1096,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">

--- a/Backlogs/Sprint Backlogs.xlsx
+++ b/Backlogs/Sprint Backlogs.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>As a user, I would like to see the data appear on a map so I can see where the data belongs</t>
+  </si>
+  <si>
+    <t>SPRINT 3</t>
   </si>
 </sst>
 </file>
@@ -842,7 +845,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1013,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1026,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
